--- a/all_trends.xlsx
+++ b/all_trends.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6256,7 +6257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N241"/>
+  <dimension ref="A1:N301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6355,14 +6356,9 @@
           <t>meirl</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>40224</v>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>360</v>
       </c>
@@ -6401,14 +6397,9 @@
           <t>funny</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>18645</v>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>851</v>
       </c>
@@ -6447,14 +6438,9 @@
           <t>PeterExplainsTheJoke</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>18678</v>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>432</v>
       </c>
@@ -6493,14 +6479,9 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>18430</v>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>6032</v>
       </c>
@@ -6539,14 +6520,9 @@
           <t>memes</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>18459</v>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>176</v>
       </c>
@@ -6585,14 +6561,9 @@
           <t>OldSchoolCool</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>17185</v>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>2941</v>
       </c>
@@ -6631,14 +6602,9 @@
           <t>news</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>17033</v>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>1230</v>
       </c>
@@ -6677,14 +6643,9 @@
           <t>toptalent</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>17410</v>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>616</v>
       </c>
@@ -6723,14 +6684,9 @@
           <t>Unexpected</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>16985</v>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>243</v>
       </c>
@@ -6769,14 +6725,9 @@
           <t>todayilearned</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>16802</v>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>1094</v>
       </c>
@@ -6810,7 +6761,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -6824,7 +6774,6 @@
       <c r="G12" t="n">
         <v>1765142</v>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>85000</v>
       </c>
@@ -6834,7 +6783,6 @@
       <c r="K12" t="n">
         <v>10172</v>
       </c>
-      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>2023-12-18 07:30:02</t>
@@ -6860,7 +6808,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -6874,7 +6821,6 @@
       <c r="G13" t="n">
         <v>1541482</v>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>236679</v>
       </c>
@@ -6884,7 +6830,6 @@
       <c r="K13" t="n">
         <v>14123</v>
       </c>
-      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
           <t>2023-12-17 22:45:12</t>
@@ -6910,7 +6855,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Film &amp; Animation</t>
@@ -6924,7 +6868,6 @@
       <c r="G14" t="n">
         <v>14194865</v>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>679799</v>
       </c>
@@ -6934,7 +6877,6 @@
       <c r="K14" t="n">
         <v>18046</v>
       </c>
-      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
           <t>2023-12-18 10:03:00</t>
@@ -6960,7 +6902,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>People &amp; Blogs</t>
@@ -6974,7 +6915,6 @@
       <c r="G15" t="n">
         <v>703825</v>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>58963</v>
       </c>
@@ -6984,7 +6924,6 @@
       <c r="K15" t="n">
         <v>2939</v>
       </c>
-      <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
           <t>2023-12-18 01:29:38</t>
@@ -7010,7 +6949,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -7024,7 +6962,6 @@
       <c r="G16" t="n">
         <v>730341</v>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>44586</v>
       </c>
@@ -7034,7 +6971,6 @@
       <c r="K16" t="n">
         <v>3904</v>
       </c>
-      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
           <t>2023-12-17 18:00:21</t>
@@ -7060,7 +6996,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Howto &amp; Style</t>
@@ -7074,7 +7009,6 @@
       <c r="G17" t="n">
         <v>985208</v>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>40995</v>
       </c>
@@ -7084,7 +7018,6 @@
       <c r="K17" t="n">
         <v>2946</v>
       </c>
-      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
           <t>2023-12-17 16:00:12</t>
@@ -7110,7 +7043,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>Music</t>
@@ -7124,7 +7056,6 @@
       <c r="G18" t="n">
         <v>3817159</v>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>447303</v>
       </c>
@@ -7134,7 +7065,6 @@
       <c r="K18" t="n">
         <v>43130</v>
       </c>
-      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
           <t>2023-12-17 14:59:58</t>
@@ -7160,7 +7090,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -7174,7 +7103,6 @@
       <c r="G19" t="n">
         <v>1617889</v>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>110886</v>
       </c>
@@ -7184,7 +7112,6 @@
       <c r="K19" t="n">
         <v>6732</v>
       </c>
-      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
           <t>2023-12-16 18:00:07</t>
@@ -7210,7 +7137,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -7224,7 +7150,6 @@
       <c r="G20" t="n">
         <v>2947710</v>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>123857</v>
       </c>
@@ -7234,7 +7159,6 @@
       <c r="K20" t="n">
         <v>4714</v>
       </c>
-      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
           <t>2023-12-16 14:59:41</t>
@@ -7260,7 +7184,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>People &amp; Blogs</t>
@@ -7274,7 +7197,6 @@
       <c r="G21" t="n">
         <v>254783</v>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>16900</v>
       </c>
@@ -7284,7 +7206,6 @@
       <c r="K21" t="n">
         <v>1699</v>
       </c>
-      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>2023-12-18 01:07:53</t>
@@ -7310,20 +7231,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7344,20 +7256,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7378,20 +7281,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7412,20 +7306,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>Politics</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7446,20 +7331,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7480,20 +7356,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7514,20 +7381,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7548,20 +7406,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7582,20 +7431,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7616,20 +7456,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -7650,14 +7481,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>https://www.livemint.com/companies/news/zee-entertainment-requests-sony-india-to-extend-the-deadline-for-merger-11702821279407.html</t>
@@ -7688,14 +7511,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>https://www.dailyfx.com/news/market-week-ahead-gold-regains-2k-gbp-usd-eur-usd-rally-as-usd-slides-20231217.html</t>
@@ -7726,14 +7541,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>https://www.daijiworld.com/news/newsDisplay?newsID=1150233</t>
@@ -7764,14 +7571,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>https://timesofindia.indiatimes.com/business/india-business/one-grounded-airline-plans-to-fly-again-in-january-with-ayodhya-flights/articleshow/106068086.cms</t>
@@ -7802,14 +7601,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>https://www.foxnews.com/tech/how-to-protect-your-credit-bank-cards-from-getting-hacked</t>
@@ -7840,14 +7631,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>https://www.oregonlive.com/business/2023/12/liz-weston-confusion-about-retirement-fund-minimum-distributions-can-cause-expensive-mistakes.html</t>
@@ -7878,14 +7661,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>https://www.washingtonpost.com/business/2023/12/17/assisted-living-industry-real-estate/</t>
@@ -7916,14 +7691,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>https://www.news18.com/business/mcap-of-9-most-valued-firms-jumps-rs-2-26-lakh-cr-tcs-infosys-biggest-gainers-8707135.html</t>
@@ -7954,14 +7721,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>https://www.nbcsports.com/nfl/profootballtalk/rumor-mill/news/federal-prosecutors-are-investigating-allegation-that-jimmy-haslam-attempted-to-bribe-pilot-executives</t>
@@ -7992,14 +7751,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>https://www.rollingstone.com/culture/culture-commentary/elon-musk-tesla-crash-1234930544/</t>
@@ -8030,14 +7781,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>https://sports.yahoo.com/how-to-watch-today-kansas-city-chiefs-new-england-patriots-game-fox-130010183.html</t>
@@ -8068,14 +7811,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>https://www.bbc.com/news/uk-67724917</t>
@@ -8106,14 +7841,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>https://www.aljazeera.com/news/2023/12/17/starving-palestinians-loot-aid-trucks-as-desperation-mounts-in-gazas-rafah</t>
@@ -8144,14 +7871,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>https://www.cbssports.com/nfl/news/nfl-week-15-saturday-grades-lions-earn-a-for-broncos-beatdown-bengals-b-for-overtime-win-vs-vikings/</t>
@@ -8182,14 +7901,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=DW4lJxRxne4</t>
@@ -8220,14 +7931,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>https://www.espn.com/nfl/story/_/id/39132903/source-eagles-jalen-hurts-downgraded-illness-worsens</t>
@@ -8258,14 +7961,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>https://www.ft.com/content/97fcd9c1-0abe-4307-ab62-d9de149642f3</t>
@@ -8296,14 +7991,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>https://scitechdaily.com/glacial-pathfinders-tracing-north-americas-first-migrants-via-the-sea-ice-highway/</t>
@@ -8334,14 +8021,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>https://variety.com/2023/film/box-office/box-office-timothee-chalamet-wonka-wins-weekend-1235842643/</t>
@@ -8372,14 +8051,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>https://www.reuters.com/world/asia-pacific/north-korea-fires-suspected-ballistic-missile-south-korea-japan-say-2023-12-17/</t>
@@ -8410,20 +8081,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
       <c r="G52" t="n">
         <v>49802211</v>
       </c>
       <c r="H52" t="n">
         <v>6141</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8444,20 +8107,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>12098595</v>
       </c>
       <c r="H53" t="n">
         <v>8839</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8478,20 +8133,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
       <c r="G54" t="n">
         <v>12742542</v>
       </c>
       <c r="H54" t="n">
         <v>6735</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8512,24 +8159,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
       <c r="G55" t="n">
         <v>19281207</v>
       </c>
       <c r="H55" t="n">
         <v>44374</v>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8550,20 +8190,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="n">
         <v>12357708</v>
       </c>
       <c r="H56" t="n">
         <v>47687</v>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8584,20 +8216,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>12761296</v>
       </c>
       <c r="H57" t="n">
         <v>49193</v>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8618,24 +8242,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Sports &amp; Outdoor</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="n">
         <v>35629275</v>
       </c>
       <c r="H58" t="n">
         <v>2080</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8656,24 +8273,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="n">
         <v>13886554</v>
       </c>
       <c r="H59" t="n">
         <v>40059</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8692,24 +8302,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
       <c r="G60" t="n">
         <v>14877724</v>
       </c>
       <c r="H60" t="n">
         <v>41078</v>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8730,24 +8333,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="n">
         <v>10930183</v>
       </c>
       <c r="H61" t="n">
         <v>42922</v>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>2023-12-18</t>
@@ -8768,7 +8364,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -8782,7 +8377,6 @@
       <c r="G62" t="n">
         <v>1871589</v>
       </c>
-      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
         <v>172567</v>
       </c>
@@ -8792,7 +8386,6 @@
       <c r="K62" t="n">
         <v>6661</v>
       </c>
-      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
           <t>2023-12-18 21:24:29</t>
@@ -8818,7 +8411,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -8832,7 +8424,6 @@
       <c r="G63" t="n">
         <v>368123</v>
       </c>
-      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
         <v>3675</v>
       </c>
@@ -8842,7 +8433,6 @@
       <c r="K63" t="n">
         <v>390</v>
       </c>
-      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
           <t>2023-12-19 04:17:51</t>
@@ -8868,7 +8458,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -8882,7 +8471,6 @@
       <c r="G64" t="n">
         <v>1022209</v>
       </c>
-      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
         <v>65819</v>
       </c>
@@ -8892,7 +8480,6 @@
       <c r="K64" t="n">
         <v>9181</v>
       </c>
-      <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
           <t>2023-12-18 18:00:09</t>
@@ -8918,7 +8505,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -8932,7 +8518,6 @@
       <c r="G65" t="n">
         <v>617493</v>
       </c>
-      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
         <v>48370</v>
       </c>
@@ -8942,7 +8527,6 @@
       <c r="K65" t="n">
         <v>1884</v>
       </c>
-      <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
           <t>2023-12-18 21:04:41</t>
@@ -8968,7 +8552,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -8982,7 +8565,6 @@
       <c r="G66" t="n">
         <v>496594</v>
       </c>
-      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>30748</v>
       </c>
@@ -8992,7 +8574,6 @@
       <c r="K66" t="n">
         <v>1215</v>
       </c>
-      <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
           <t>2023-12-18 20:00:02</t>
@@ -9018,7 +8599,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -9032,7 +8612,6 @@
       <c r="G67" t="n">
         <v>597370</v>
       </c>
-      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>50094</v>
       </c>
@@ -9042,7 +8621,6 @@
       <c r="K67" t="n">
         <v>6635</v>
       </c>
-      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
           <t>2023-12-18 17:00:09</t>
@@ -9068,7 +8646,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -9082,7 +8659,6 @@
       <c r="G68" t="n">
         <v>430235</v>
       </c>
-      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>24838</v>
       </c>
@@ -9092,7 +8668,6 @@
       <c r="K68" t="n">
         <v>1557</v>
       </c>
-      <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr">
         <is>
           <t>2023-12-19 00:41:12</t>
@@ -9118,7 +8693,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -9132,7 +8706,6 @@
       <c r="G69" t="n">
         <v>3210629</v>
       </c>
-      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>123056</v>
       </c>
@@ -9142,7 +8715,6 @@
       <c r="K69" t="n">
         <v>15888</v>
       </c>
-      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
           <t>2023-12-18 07:30:02</t>
@@ -9168,7 +8740,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Music</t>
@@ -9182,7 +8753,6 @@
       <c r="G70" t="n">
         <v>477840</v>
       </c>
-      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
         <v>41029</v>
       </c>
@@ -9192,7 +8762,6 @@
       <c r="K70" t="n">
         <v>5454</v>
       </c>
-      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr">
         <is>
           <t>2023-12-18 10:00:02</t>
@@ -9218,7 +8787,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -9232,7 +8800,6 @@
       <c r="G71" t="n">
         <v>68302443</v>
       </c>
-      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>3175565</v>
       </c>
@@ -9242,7 +8809,6 @@
       <c r="K71" t="n">
         <v>52099</v>
       </c>
-      <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr">
         <is>
           <t>2023-12-16 17:00:01</t>
@@ -9268,14 +8834,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>https://techcrunch.com/2023/12/18/apple-watch-series-9-sales-to-be-halted-over-patent-dispute/</t>
@@ -9306,14 +8864,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>https://www.cbsnews.com/news/pope-francis-same-sex-unions-priests-can-bless-marriage/</t>
@@ -9344,14 +8894,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=pxzM8J8X4Ig</t>
@@ -9382,14 +8924,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>https://www.cnn.com/2023/12/17/weather/northeast-storms-flooding-travel-monday/index.html</t>
@@ -9420,14 +8954,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>https://www.reuters.com/world/middle-east/ukmto-ambrey-report-possible-explosion-south-yemens-port-mokha-2023-12-18/</t>
@@ -9458,14 +8984,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>https://www.theverge.com/2023/12/18/24006045/southwest-fined-dot-holiday-delays-fund</t>
@@ -9496,14 +9014,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=P3vMDwJbbh4</t>
@@ -9534,14 +9044,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>https://www.theverge.com/2023/12/18/24006037/apple-beeper-doj-investigation-imessage-letter-android</t>
@@ -9572,14 +9074,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>https://thehill.com/homenews/media/4365422-kilmeade-defends-trump-poison-remark/</t>
@@ -9610,14 +9104,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>https://www.espn.com/mens-college-basketball/story/_/id/39139942/north-carolina-basketball-star-eric-montross-dies-age-52</t>
@@ -9648,14 +9134,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>https://techcrunch.com/2023/12/18/apple-watch-series-9-sales-to-be-halted-over-patent-dispute/</t>
@@ -9686,14 +9164,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/stock-market-news-today-us-stocks-keep-grip-on-highs-looking-to-build-on-7-week-rally-143140287.html</t>
@@ -9724,14 +9194,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>https://www.washingtonpost.com/technology/2023/12/18/european-union-x-probe-elon-musk/</t>
@@ -9762,14 +9224,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>https://www.theverge.com/2023/12/18/24006045/southwest-fined-dot-holiday-delays-fund</t>
@@ -9800,14 +9254,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>https://www.forexlive.com/news/oil-climbs-2-with-eyes-on-the-red-sea-20231218/</t>
@@ -9838,14 +9284,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>https://www.cnbc.com/2023/12/18/feds-goolsbee-says-he-was-confused-by-last-weeks-market-reaction-.html</t>
@@ -9876,14 +9314,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>https://www.hindustantimes.com/business/indigo-becomes-first-indian-airline-to-carry-100-million-passengers-in-a-year-101702905187555.html</t>
@@ -9914,14 +9344,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>https://www.bleepingcomputer.com/news/security/mortgage-giant-mr-cooper-data-breach-affects-147-million-people/</t>
@@ -9952,14 +9374,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>https://www.etnownews.com/markets/doms-share-price-listing-prediction-on-nse-bse-check-listing-date-and-latest-gmp-of-ipo-article-106098684</t>
@@ -9990,14 +9404,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>https://variety.com/2023/tv/news/john-oliver-elon-musk-less-f-able-titanic-villain-billy-zane-1235843628/</t>
@@ -10033,14 +9439,9 @@
           <t>me_irl</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
       <c r="I92" t="n">
         <v>74813</v>
       </c>
-      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>438</v>
       </c>
@@ -10079,14 +9480,9 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
         <v>54218</v>
       </c>
-      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>412</v>
       </c>
@@ -10125,14 +9521,9 @@
           <t>mildlyinfuriating</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
         <v>45761</v>
       </c>
-      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>2773</v>
       </c>
@@ -10171,14 +9562,9 @@
           <t>todayilearned</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
         <v>44351</v>
       </c>
-      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>1300</v>
       </c>
@@ -10217,14 +9603,9 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
         <v>38872</v>
       </c>
-      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>3715</v>
       </c>
@@ -10263,14 +9644,9 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
         <v>36143</v>
       </c>
-      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>1035</v>
       </c>
@@ -10309,14 +9685,9 @@
           <t>wholesomememes</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
         <v>33619</v>
       </c>
-      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>441</v>
       </c>
@@ -10355,14 +9726,9 @@
           <t>mildlyinfuriating</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
         <v>33850</v>
       </c>
-      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>1290</v>
       </c>
@@ -10401,14 +9767,9 @@
           <t>Wellthatsucks</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
         <v>33155</v>
       </c>
-      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>1205</v>
       </c>
@@ -10447,14 +9808,9 @@
           <t>facepalm</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
         <v>30336</v>
       </c>
-      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>921</v>
       </c>
@@ -10488,20 +9844,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>Politics</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10522,20 +9869,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10556,20 +9894,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>Business</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10590,20 +9919,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10624,20 +9944,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>News</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10658,20 +9969,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10692,20 +9994,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>Health</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10726,20 +10019,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10760,20 +10044,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>Sports</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10794,20 +10069,11 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>Entertainment</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10828,20 +10094,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
       <c r="G112" t="n">
         <v>48593482</v>
       </c>
       <c r="H112" t="n">
         <v>144994</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10862,24 +10120,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>Apparel &amp; Accessories</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr"/>
       <c r="G113" t="n">
         <v>91122256</v>
       </c>
       <c r="H113" t="n">
         <v>15951</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10900,24 +10151,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>News &amp; Entertainment</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr"/>
       <c r="G114" t="n">
         <v>58196418</v>
       </c>
       <c r="H114" t="n">
         <v>2901</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10938,24 +10182,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>Sports &amp; Outdoor</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr"/>
       <c r="G115" t="n">
         <v>116766667</v>
       </c>
       <c r="H115" t="n">
         <v>4568</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -10976,20 +10213,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
       <c r="G116" t="n">
         <v>16809767</v>
       </c>
       <c r="H116" t="n">
         <v>5406</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11010,20 +10239,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
       <c r="G117" t="n">
         <v>34992850</v>
       </c>
       <c r="H117" t="n">
         <v>52767</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11044,20 +10265,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
       <c r="G118" t="n">
         <v>33357870</v>
       </c>
       <c r="H118" t="n">
         <v>53309</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11078,20 +10291,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
       <c r="G119" t="n">
         <v>11977435</v>
       </c>
       <c r="H119" t="n">
         <v>51689</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11112,24 +10317,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr"/>
       <c r="G120" t="n">
         <v>13803057</v>
       </c>
       <c r="H120" t="n">
         <v>43624</v>
       </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11150,24 +10348,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr"/>
       <c r="G121" t="n">
         <v>13797180</v>
       </c>
       <c r="H121" t="n">
         <v>44694</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>2023-12-19</t>
@@ -11188,7 +10379,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>Music</t>
@@ -11202,7 +10392,6 @@
       <c r="G122" t="n">
         <v>1395500</v>
       </c>
-      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
         <v>251530</v>
       </c>
@@ -11212,7 +10401,6 @@
       <c r="K122" t="n">
         <v>32206</v>
       </c>
-      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr">
         <is>
           <t>2023-12-19 19:00:10</t>
@@ -11238,7 +10426,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>People &amp; Blogs</t>
@@ -11252,7 +10439,6 @@
       <c r="G123" t="n">
         <v>7875962</v>
       </c>
-      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
         <v>473396</v>
       </c>
@@ -11262,7 +10448,6 @@
       <c r="K123" t="n">
         <v>29069</v>
       </c>
-      <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr">
         <is>
           <t>2023-12-19 02:49:08</t>
@@ -11288,7 +10473,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>Film &amp; Animation</t>
@@ -11302,7 +10486,6 @@
       <c r="G124" t="n">
         <v>298920</v>
       </c>
-      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
         <v>41700</v>
       </c>
@@ -11312,7 +10495,6 @@
       <c r="K124" t="n">
         <v>1594</v>
       </c>
-      <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr">
         <is>
           <t>2023-12-20 06:56:22</t>
@@ -11338,7 +10520,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -11352,7 +10533,6 @@
       <c r="G125" t="n">
         <v>682160</v>
       </c>
-      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
         <v>5349</v>
       </c>
@@ -11362,7 +10542,6 @@
       <c r="K125" t="n">
         <v>554</v>
       </c>
-      <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr">
         <is>
           <t>2023-12-19 04:17:51</t>
@@ -11388,7 +10567,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>News &amp; Politics</t>
@@ -11402,7 +10580,6 @@
       <c r="G126" t="n">
         <v>165280</v>
       </c>
-      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
         <v>1990</v>
       </c>
@@ -11412,7 +10589,6 @@
       <c r="K126" t="n">
         <v>2099</v>
       </c>
-      <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr">
         <is>
           <t>2023-12-20 04:14:19</t>
@@ -11438,7 +10614,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>People &amp; Blogs</t>
@@ -11452,7 +10627,6 @@
       <c r="G127" t="n">
         <v>9571816</v>
       </c>
-      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
         <v>932028</v>
       </c>
@@ -11462,7 +10636,6 @@
       <c r="K127" t="n">
         <v>262492</v>
       </c>
-      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr">
         <is>
           <t>2023-12-18 22:32:33</t>
@@ -11488,7 +10661,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -11502,7 +10674,6 @@
       <c r="G128" t="n">
         <v>2848168</v>
       </c>
-      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
         <v>219788</v>
       </c>
@@ -11512,7 +10683,6 @@
       <c r="K128" t="n">
         <v>7593</v>
       </c>
-      <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr">
         <is>
           <t>2023-12-18 21:24:29</t>
@@ -11538,7 +10708,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>Sports</t>
@@ -11552,7 +10721,6 @@
       <c r="G129" t="n">
         <v>467640</v>
       </c>
-      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
         <v>6219</v>
       </c>
@@ -11562,7 +10730,6 @@
       <c r="K129" t="n">
         <v>749</v>
       </c>
-      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr">
         <is>
           <t>2023-12-19 22:21:04</t>
@@ -11588,7 +10755,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>Comedy</t>
@@ -11602,7 +10768,6 @@
       <c r="G130" t="n">
         <v>1066808</v>
       </c>
-      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
         <v>56719</v>
       </c>
@@ -11612,7 +10777,6 @@
       <c r="K130" t="n">
         <v>5082</v>
       </c>
-      <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr">
         <is>
           <t>2023-12-18 16:00:12</t>
@@ -11638,7 +10802,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -11652,7 +10815,6 @@
       <c r="G131" t="n">
         <v>905191</v>
       </c>
-      <c r="H131" t="inlineStr"/>
       <c r="I131" t="n">
         <v>146774</v>
       </c>
@@ -11662,7 +10824,6 @@
       <c r="K131" t="n">
         <v>22787</v>
       </c>
-      <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
         <is>
           <t>2023-12-20 02:59:44</t>
@@ -11688,14 +10849,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-      <c r="H132" t="inlineStr"/>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>https://www.cnn.com/2023/12/19/us/fugitive-lake-discovery-dna-homicide/index.html</t>
@@ -11726,14 +10879,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>https://www.cbsnews.com/news/sandra-day-oconnor-funeral-live-stream-national-cathedral/</t>
@@ -11764,14 +10909,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>https://www.washingtonpost.com/health/2023/12/19/plumbing-secrets-how-shipwrecks-transform-into-living-seabeds/</t>
@@ -11802,14 +10939,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>https://www.nbcnews.com/news/us-news/jonathan-majors-jury-reaches-verdict-assault-trial-rcna129406</t>
@@ -11840,14 +10969,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>https://sports.yahoo.com/nfl-power-rankings-week-16-remember-no-team-pursued-franchise-tagged-lamar-jackson-120013309.html</t>
@@ -11878,14 +10999,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>https://www.cnn.com/2023/12/19/middleeast/red-sea-crisis-explainer-houthi-yemen-israel-intl/index.html</t>
@@ -11916,14 +11029,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>https://www.marketwatch.com/story/this-is-a-good-time-to-invest-in-a-bond-fund-and-this-manager-has-an-advantage-over-his-largest-competitors-76a9f9ec</t>
@@ -11954,14 +11059,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>https://www.usatoday.com/story/entertainment/celebrities/2023/12/19/jennifer-love-hewitt-aging/71969674007/</t>
@@ -11992,14 +11089,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>https://removed.com</t>
@@ -12030,14 +11119,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/nikola-founder-trevor-milton-sentenced-184659163.html</t>
@@ -12068,14 +11149,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>https://www.bbc.com/news/business-67757332</t>
@@ -12106,14 +11179,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/stock-market-news-today-us-stocks-hold-onto-gains-as-rate-cut-hopes-persist-143200600.html</t>
@@ -12144,14 +11209,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>https://www.cnn.com/2023/12/19/economy/economy-fed-recession/index.html</t>
@@ -12182,14 +11239,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>https://www.marketwatch.com/story/this-is-a-good-time-to-invest-in-a-bond-fund-and-this-manager-has-an-advantage-over-his-largest-competitors-76a9f9ec</t>
@@ -12220,14 +11269,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>https://www.investors.com/news/tesla-stock-early-buy-point-on-strong-china-registrations/</t>
@@ -12258,14 +11299,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>https://www.fxstreet.com/news/gold-price-forecast-no-reason-for-any-significant-downward-correction-of-xau-usd-commerzbank-202312191456</t>
@@ -12296,14 +11329,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>https://www.livemint.com/companies/vikram-solar-dfc-sign-retainer-letter-for-200-mn-funding-11702996772469.html</t>
@@ -12334,14 +11359,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>https://www.hollywoodreporter.com/business/business-news/xfinity-hack-data-breach-customer-information-1235765798/</t>
@@ -12372,14 +11389,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/nikola-founder-trevor-milton-sentenced-184659163.html</t>
@@ -12410,14 +11419,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>https://finance.yahoo.com/news/white-house-backs-industry-effort-140102446.html</t>
@@ -12453,14 +11454,9 @@
           <t>Damnthatsinteresting</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
         <v>57700</v>
       </c>
-      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
         <v>2311</v>
       </c>
@@ -12499,14 +11495,9 @@
           <t>news</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
         <v>52245</v>
       </c>
-      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>6434</v>
       </c>
@@ -12545,14 +11536,9 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
         <v>52657</v>
       </c>
-      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>1035</v>
       </c>
@@ -12591,14 +11577,9 @@
           <t>politics</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
         <v>42051</v>
       </c>
-      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>17748</v>
       </c>
@@ -12637,14 +11618,9 @@
           <t>mildlyinfuriating</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
         <v>35721</v>
       </c>
-      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>785</v>
       </c>
@@ -12683,14 +11659,9 @@
           <t>Damnthatsinteresting</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
         <v>32721</v>
       </c>
-      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
         <v>1287</v>
       </c>
@@ -12729,14 +11700,9 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
         <v>32253</v>
       </c>
-      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
         <v>780</v>
       </c>
@@ -12775,14 +11741,9 @@
           <t>gaming</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
         <v>31931</v>
       </c>
-      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
         <v>1249</v>
       </c>
@@ -12821,14 +11782,9 @@
           <t>WhitePeopleTwitter</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
         <v>30977</v>
       </c>
-      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
         <v>1401</v>
       </c>
@@ -12867,14 +11823,9 @@
           <t>meirl</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
         <v>31393</v>
       </c>
-      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
         <v>195</v>
       </c>
@@ -12908,15 +11859,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
       <c r="M162" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -12940,15 +11882,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
       <c r="M163" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -12972,15 +11905,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
       <c r="M164" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13004,15 +11928,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
       <c r="M165" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13036,15 +11951,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
       <c r="M166" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13068,15 +11974,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
       <c r="M167" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13100,15 +11997,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
       <c r="M168" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13132,15 +12020,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
       <c r="M169" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13164,15 +12043,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
       <c r="M170" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13196,15 +12066,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
       <c r="M171" s="8" t="n">
         <v>45280.38546697917</v>
       </c>
@@ -13228,20 +12089,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
       <c r="G172" t="n">
         <v>50806614</v>
       </c>
       <c r="H172" t="n">
         <v>189340</v>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13262,24 +12115,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
           <t>Apparel &amp; Accessories</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr"/>
       <c r="G173" t="n">
         <v>94548986</v>
       </c>
       <c r="H173" t="n">
         <v>18161</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13300,24 +12146,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
           <t>Beauty &amp; Personal Care</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
       <c r="G174" t="n">
         <v>66314443</v>
       </c>
       <c r="H174" t="n">
         <v>9383</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13338,24 +12177,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t>Sports &amp; Outdoor</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr"/>
       <c r="G175" t="n">
         <v>141785841</v>
       </c>
       <c r="H175" t="n">
         <v>5169</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13376,20 +12208,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
       <c r="G176" t="n">
         <v>21765382</v>
       </c>
       <c r="H176" t="n">
         <v>12502</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13410,24 +12234,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
       <c r="G177" t="n">
         <v>37481087</v>
       </c>
       <c r="H177" t="n">
         <v>68917</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13448,24 +12265,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr"/>
       <c r="G178" t="n">
         <v>33948981</v>
       </c>
       <c r="H178" t="n">
         <v>69371</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13486,20 +12296,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
       <c r="G179" t="n">
         <v>13713236</v>
       </c>
       <c r="H179" t="n">
         <v>65798</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13520,24 +12322,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr"/>
       <c r="G180" t="n">
         <v>15520680</v>
       </c>
       <c r="H180" t="n">
         <v>57157</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13558,24 +12353,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
       <c r="G181" t="n">
         <v>14661066</v>
       </c>
       <c r="H181" t="n">
         <v>58264</v>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr">
         <is>
           <t>2023-12-20</t>
@@ -13596,7 +12384,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>Music</t>
@@ -13610,7 +12397,6 @@
       <c r="G182" t="n">
         <v>1798719</v>
       </c>
-      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
         <v>106478</v>
       </c>
@@ -13622,7 +12408,6 @@
           <t>6686</t>
         </is>
       </c>
-      <c r="L182" t="inlineStr"/>
       <c r="M182" t="inlineStr">
         <is>
           <t>2023-12-20 16:49:22</t>
@@ -13648,7 +12433,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -13662,7 +12446,6 @@
       <c r="G183" t="n">
         <v>2676230</v>
       </c>
-      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
         <v>118892</v>
       </c>
@@ -13674,7 +12457,6 @@
           <t>13339</t>
         </is>
       </c>
-      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
         <is>
           <t>2023-12-20 16:29:24</t>
@@ -13700,7 +12482,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>Comedy</t>
@@ -13714,7 +12495,6 @@
       <c r="G184" t="n">
         <v>803013</v>
       </c>
-      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
         <v>59468</v>
       </c>
@@ -13726,7 +12506,6 @@
           <t>4004</t>
         </is>
       </c>
-      <c r="L184" t="inlineStr"/>
       <c r="M184" t="inlineStr">
         <is>
           <t>2023-12-20 18:35:50</t>
@@ -13752,7 +12531,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>News &amp; Politics</t>
@@ -13766,7 +12544,6 @@
       <c r="G185" t="n">
         <v>976126</v>
       </c>
-      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
         <v>22811</v>
       </c>
@@ -13778,7 +12555,6 @@
           <t>Unavailable</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr">
         <is>
           <t>2023-12-20 16:54:19</t>
@@ -13804,7 +12580,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -13818,7 +12593,6 @@
       <c r="G186" t="n">
         <v>618551</v>
       </c>
-      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
         <v>12513</v>
       </c>
@@ -13830,7 +12604,6 @@
           <t>1076</t>
         </is>
       </c>
-      <c r="L186" t="inlineStr"/>
       <c r="M186" t="inlineStr">
         <is>
           <t>2023-12-20 15:35:09</t>
@@ -13856,7 +12629,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>Howto &amp; Style</t>
@@ -13870,7 +12642,6 @@
       <c r="G187" t="n">
         <v>606654</v>
       </c>
-      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
         <v>25059</v>
       </c>
@@ -13882,7 +12653,6 @@
           <t>1582</t>
         </is>
       </c>
-      <c r="L187" t="inlineStr"/>
       <c r="M187" t="inlineStr">
         <is>
           <t>2023-12-20 15:45:02</t>
@@ -13908,7 +12678,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>Music</t>
@@ -13922,7 +12691,6 @@
       <c r="G188" t="n">
         <v>974846</v>
       </c>
-      <c r="H188" t="inlineStr"/>
       <c r="I188" t="n">
         <v>60204</v>
       </c>
@@ -13934,7 +12702,6 @@
           <t>1662</t>
         </is>
       </c>
-      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr">
         <is>
           <t>2023-12-20 14:00:30</t>
@@ -13960,7 +12727,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
           <t>Entertainment</t>
@@ -13974,7 +12740,6 @@
       <c r="G189" t="n">
         <v>522277</v>
       </c>
-      <c r="H189" t="inlineStr"/>
       <c r="I189" t="n">
         <v>34457</v>
       </c>
@@ -13986,7 +12751,6 @@
           <t>1371</t>
         </is>
       </c>
-      <c r="L189" t="inlineStr"/>
       <c r="M189" t="inlineStr">
         <is>
           <t>2023-12-20 17:54:37</t>
@@ -14012,7 +12776,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>Gaming</t>
@@ -14026,7 +12789,6 @@
       <c r="G190" t="n">
         <v>1492859</v>
       </c>
-      <c r="H190" t="inlineStr"/>
       <c r="I190" t="n">
         <v>73531</v>
       </c>
@@ -14038,7 +12800,6 @@
           <t>2379</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr"/>
       <c r="M190" t="inlineStr">
         <is>
           <t>2023-12-21 01:11:30</t>
@@ -14064,7 +12825,6 @@
           <t>YouTube</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>Music</t>
@@ -14078,7 +12838,6 @@
       <c r="G191" t="n">
         <v>1897095</v>
       </c>
-      <c r="H191" t="inlineStr"/>
       <c r="I191" t="n">
         <v>279661</v>
       </c>
@@ -14090,7 +12849,6 @@
           <t>33845</t>
         </is>
       </c>
-      <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
         <is>
           <t>2023-12-19 19:00:10</t>
@@ -14116,14 +12874,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>https://www.bbc.com/news/uk-northern-ireland-67769920</t>
@@ -14154,14 +12904,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>https://theathletic.com/5150462/2023/12/20/aaron-rodgers-jets-2024-roster/</t>
@@ -14192,14 +12934,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=k77OkJJA0_o</t>
@@ -14230,14 +12964,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>https://www.reuters.com/world/us/us-has-freed-close-ally-venezuela-president-swap-jailed-americans-ap-2023-12-20/</t>
@@ -14268,14 +12994,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>https://www.ft.com/content/4321e681-f81c-4111-b3b5-13260a6c2d33</t>
@@ -14306,14 +13024,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>https://www.reuters.com/business/shipping-industry-dark-over-us-led-red-sea-navy-force-2023-12-20/</t>
@@ -14344,14 +13054,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>https://gizmodo.com/nasa-psyche-deep-space-laser-communications-cat-video-1851114080</t>
@@ -14382,14 +13084,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>https://www.tomsguide.com/deals/24-hour-flash-sale-at-best-buy-macs-from-dollar749-switch-games-from-dollar14</t>
@@ -14420,14 +13114,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>https://www.cbsnews.com/news/trump-colorado-supreme-court/</t>
@@ -14458,14 +13144,6 @@
           <t>US Headlines</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>https://variety.com/2023/music/news/ryan-gosling-ken-ep-im-just-ken-christmas-version-1235844314/</t>
@@ -14496,14 +13174,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>https://www.reuters.com/business/autos-transportation/panasonic-takes-oklahoma-out-candidate-list-new-battery-plant-nikkei-2023-12-20/</t>
@@ -14534,14 +13204,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>https://www.ndtv.com/world-news/2-cars-in-garage-enough-why-sal-khan-quit-plush-job-to-open-khan-academy-4709737</t>
@@ -14572,14 +13234,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>https://www.cnn.com/2023/12/20/media/siriusxm-cancellation-lawsuit/index.html</t>
@@ -14610,14 +13264,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>https://www.livemint.com/companies/news/sharechat-lays-off-200-employees-valuation-halved-in-last-one-year-11703086098121.html</t>
@@ -14648,14 +13294,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>https://www.hindustantimes.com/business/2-tata-cars-get-5-stars-as-bharat-ncap-awards-first-ever-ratings-gadkari-lauds-101703086025505.html</t>
@@ -14686,14 +13324,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>https://thehill.com/business/4368720-fed-officials-question-stock-market-surge-after-rate-cut-projections/</t>
@@ -14724,14 +13354,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>https://www.moneycontrol.com/news/business/sony-agrees-to-discuss-extension-of-merger-deadline-says-zee-entertainment-11934701.html</t>
@@ -14762,14 +13384,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>https://www.roadandtrack.com/news/a46180028/2024-subaru-wrx-tr-pricing/</t>
@@ -14800,14 +13414,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>https://www.theverge.com/2023/12/20/24008189/adobe-figma-deal-eu-explained-decoder</t>
@@ -14838,14 +13444,6 @@
           <t>Global Business News</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>https://www.freep.com/story/money/cars/general-motors/2023/12/20/gm-buick-dealerships-buyouts/71978066007/</t>
@@ -14881,14 +13479,9 @@
           <t>pics</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
       <c r="I212" t="n">
         <v>59689</v>
       </c>
-      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>1885</v>
       </c>
@@ -14927,14 +13520,9 @@
           <t>me_irl</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
       <c r="I213" t="n">
         <v>53214</v>
       </c>
-      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>1088</v>
       </c>
@@ -14973,14 +13561,9 @@
           <t>movies</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
       <c r="I214" t="n">
         <v>39023</v>
       </c>
-      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>1782</v>
       </c>
@@ -15019,14 +13602,9 @@
           <t>WhitePeopleTwitter</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
       <c r="I215" t="n">
         <v>37499</v>
       </c>
-      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>943</v>
       </c>
@@ -15065,14 +13643,9 @@
           <t>Funnymemes</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
       <c r="I216" t="n">
         <v>35647</v>
       </c>
-      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>1636</v>
       </c>
@@ -15111,14 +13684,9 @@
           <t>Unexpected</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
       <c r="I217" t="n">
         <v>33746</v>
       </c>
-      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
         <v>526</v>
       </c>
@@ -15157,14 +13725,9 @@
           <t>MadeMeSmile</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
       <c r="I218" t="n">
         <v>33496</v>
       </c>
-      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
         <v>500</v>
       </c>
@@ -15203,14 +13766,9 @@
           <t>AITAH</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
       <c r="I219" t="n">
         <v>33047</v>
       </c>
-      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>20180</v>
       </c>
@@ -15249,14 +13807,9 @@
           <t>nextfuckinglevel</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
       <c r="I220" t="n">
         <v>31245</v>
       </c>
-      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>573</v>
       </c>
@@ -15295,14 +13848,9 @@
           <t>clevercomebacks</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
       <c r="I221" t="n">
         <v>30021</v>
       </c>
-      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>1251</v>
       </c>
@@ -15336,15 +13884,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
       <c r="M222" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15368,15 +13907,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
       <c r="M223" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15400,15 +13930,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
       <c r="M224" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15432,15 +13953,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
       <c r="M225" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15464,15 +13976,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
       <c r="M226" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15496,15 +13999,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
       <c r="M227" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15528,15 +14022,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
       <c r="M228" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15560,15 +14045,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
       <c r="M229" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15592,15 +14068,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
       <c r="M230" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15624,15 +14091,6 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
       <c r="M231" s="8" t="n">
         <v>45281.38546148148</v>
       </c>
@@ -15656,20 +14114,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
       <c r="G232" t="n">
         <v>140465530</v>
       </c>
       <c r="H232" t="n">
         <v>33394</v>
       </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
       <c r="N232" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15690,20 +14140,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
       <c r="G233" t="n">
         <v>55716281</v>
       </c>
       <c r="H233" t="n">
         <v>183193</v>
       </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
       <c r="N233" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15724,20 +14166,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
       <c r="G234" t="n">
         <v>90301317</v>
       </c>
       <c r="H234" t="n">
         <v>81762</v>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
       <c r="N234" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15758,20 +14192,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
       <c r="G235" t="n">
         <v>27543846</v>
       </c>
       <c r="H235" t="n">
         <v>12307</v>
       </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
       <c r="N235" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15792,24 +14218,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
           <t>Sports &amp; Outdoor</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
         <v>57767802</v>
       </c>
       <c r="H236" t="n">
         <v>5339</v>
       </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
       <c r="N236" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15830,24 +14249,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr"/>
       <c r="G237" t="n">
         <v>43663171</v>
       </c>
       <c r="H237" t="n">
         <v>66960</v>
       </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
       <c r="N237" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15868,24 +14280,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
           <t>Games</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr"/>
       <c r="G238" t="n">
         <v>38411621</v>
       </c>
       <c r="H238" t="n">
         <v>67371</v>
       </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
       <c r="N238" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15906,20 +14311,12 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
       <c r="G239" t="n">
         <v>24884208</v>
       </c>
       <c r="H239" t="n">
         <v>20276</v>
       </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
       <c r="N239" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15940,24 +14337,17 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
           <t>News &amp; Entertainment</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr"/>
       <c r="G240" t="n">
         <v>26173459</v>
       </c>
       <c r="H240" t="n">
         <v>58563</v>
       </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
       <c r="N240" t="inlineStr">
         <is>
           <t>2023-12-21</t>
@@ -15978,23 +14368,2005 @@
           <t>TikTok</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
       <c r="G241" t="n">
         <v>57323145</v>
       </c>
       <c r="H241" t="n">
         <v>11610</v>
       </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
       <c r="N241" t="inlineStr">
         <is>
           <t>2023-12-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>지민 (Jimin) 'Closer Than This' Official MV</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>HYBE LABELS</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>3073446</v>
+      </c>
+      <c r="I242" t="n">
+        <v>987847</v>
+      </c>
+      <c r="J242" t="n">
+        <v>73600000</v>
+      </c>
+      <c r="K242" t="n">
+        <v>85810</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>2023-12-22 05:00:02</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>2</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Drake - You Broke My Heart</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>DrakeVEVO</t>
+        </is>
+      </c>
+      <c r="G243" t="n">
+        <v>2473798</v>
+      </c>
+      <c r="I243" t="n">
+        <v>123673</v>
+      </c>
+      <c r="J243" t="n">
+        <v>9160000</v>
+      </c>
+      <c r="K243" t="n">
+        <v>7551</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:49:22</t>
+        </is>
+      </c>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>3</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Dianna Health Update from SmarterEveryDay</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Physics Girl</t>
+        </is>
+      </c>
+      <c r="G244" t="n">
+        <v>1226276</v>
+      </c>
+      <c r="I244" t="n">
+        <v>134336</v>
+      </c>
+      <c r="J244" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="K244" t="n">
+        <v>7658</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>2023-12-21 21:18:01</t>
+        </is>
+      </c>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>4</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>I Tested 1-Star Camping</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Ryan Trahan</t>
+        </is>
+      </c>
+      <c r="G245" t="n">
+        <v>3572061</v>
+      </c>
+      <c r="I245" t="n">
+        <v>141749</v>
+      </c>
+      <c r="J245" t="n">
+        <v>14200000</v>
+      </c>
+      <c r="K245" t="n">
+        <v>15330</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:29:24</t>
+        </is>
+      </c>
+      <c r="N245" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>5</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>I built this YouTuber a Bionic Hand!</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Hacksmith Industries</t>
+        </is>
+      </c>
+      <c r="G246" t="n">
+        <v>1025141</v>
+      </c>
+      <c r="I246" t="n">
+        <v>55756</v>
+      </c>
+      <c r="J246" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1655</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:58:34</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>6</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>HIGHLIGHTS | CLUB AMERICA 3 vs 2 FC BARCELONA | DALLAS FRIENDLY</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="G247" t="n">
+        <v>569506</v>
+      </c>
+      <c r="I247" t="n">
+        <v>16573</v>
+      </c>
+      <c r="J247" t="n">
+        <v>16200000</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1218</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>2023-12-22 04:18:33</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>7</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Lego Fortnite Meme Olympics</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>LazarBeam</t>
+        </is>
+      </c>
+      <c r="G248" t="n">
+        <v>2463028</v>
+      </c>
+      <c r="I248" t="n">
+        <v>98629</v>
+      </c>
+      <c r="J248" t="n">
+        <v>21400000</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2706</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>2023-12-21 01:11:30</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>SIDEMEN AMONG US BUT ITS ONLY THE BEST ROLES</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>MoreSidemen</t>
+        </is>
+      </c>
+      <c r="G249" t="n">
+        <v>2162810</v>
+      </c>
+      <c r="I249" t="n">
+        <v>131459</v>
+      </c>
+      <c r="J249" t="n">
+        <v>8180000</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2901</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>2023-12-21 18:00:31</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>9</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Steve-O Is Extra Naughty For the Hot Ones Holiday Extravaganza | Hot Ones</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>First We Feast</t>
+        </is>
+      </c>
+      <c r="G250" t="n">
+        <v>527842</v>
+      </c>
+      <c r="I250" t="n">
+        <v>22133</v>
+      </c>
+      <c r="J250" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1221</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>2023-12-21 16:00:04</t>
+        </is>
+      </c>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Casually Explained: The Levels of AI</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Casually Explained</t>
+        </is>
+      </c>
+      <c r="G251" t="n">
+        <v>779296</v>
+      </c>
+      <c r="I251" t="n">
+        <v>56267</v>
+      </c>
+      <c r="J251" t="n">
+        <v>3990000</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1295</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>2023-12-21 15:00:23</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Man United, Bayern commit to UEFA amid Super League verdict - ESPN</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>https://www.espn.com/soccer/story/_/id/39160537/man-united-bayern-commit-uefa-amid-super-league-verdict</t>
+        </is>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:43:00Z</t>
+        </is>
+      </c>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>2</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>'Survivor' star Austin reacts to Dee's Tribal Council 'sucker punch' - Entertainment Weekly News</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>https://ew.com/survivor-45-austin-li-coon-reacts-dee-tribal-council-sucker-punch-interview-8419012</t>
+        </is>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:01:14Z</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>3</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>US commits to landing an international astronaut on the Moon - Ars Technica</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>https://arstechnica.com/space/2023/12/us-commits-to-landing-an-international-astronaut-on-the-moon/</t>
+        </is>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:44:47Z</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>4</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Israel Hamas war live updates: Vast tunnels uncovered under Gaza - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/news/world/israel-hamas/2023/12/21/israel-hamas-war-gaza-live-updates/71997127007/</t>
+        </is>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:28:39Z</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>5</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Beijing shrugs at U.S. call for help protecting Red Sea shipping - POLITICO</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>https://www.politico.com/news/2023/12/21/beijing-u-s-red-sea-shipping-00132861</t>
+        </is>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:28:30Z</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>6</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Streets of Argentina erupt with anger against new Milei proposals - Euronews</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>https://www.euronews.com/2023/12/21/streets-of-argentina-erupt-with-anger-against-new-milei-proposals</t>
+        </is>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:07:56Z</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>7</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Florida State leaving the ACC would have massive ramifications for the future of college athletics - Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/florida-state-leaving-the-acc-would-have-massive-ramifications-for-the-future-of-college-athletics-154632042.html</t>
+        </is>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:46:32Z</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>8</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Flooding forces evacuations, warnings to stay off roads - VC Star</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>https://www.vcstar.com/story/news/2023/12/21/flooding-forces-evacuations-warnings-to-stay-off-roads/71998169007/</t>
+        </is>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:37:23Z</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>9</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>NFL Week 16 picks, predictions: Rams, Saints battle for wild-card spot - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/sports/nfl-picks/2023/12/21/nfl-picks-predictions-spread-cowboys-dolphins-ravens-niners-week-16/71997168007/</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:19:40Z</t>
+        </is>
+      </c>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>10</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>'Iron Claw' star Zac Efron breaks down his wrestling transformation - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/entertainment/movies/2023/12/21/the-iron-claw-zac-efron-interview/71956960007/</t>
+        </is>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:16:14Z</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Unexpected Eurotunnel strike disrupts train traffic under Channel - Reuters</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/europe/unexpected-eurotunnel-strike-disrupts-train-traffic-under-channel-eurostar-2023-12-21/</t>
+        </is>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:33:00Z</t>
+        </is>
+      </c>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>2</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Biden Administration Explores Raising Tariffs on Chinese EVs - WSJ - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/economy/trade/biden-administration-explores-raising-tariffs-on-chinese-evs-e439d87d</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:31:00Z</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>3</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>New York lawmakers propose new legislation aimed at having Chick-Fil-A open seven days a week - Salon</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>https://www.salon.com/2023/12/21/new-york-lawmakers-propose-new-legislation-aimed-at-having-chick-fil-a-open-seven-days-a-week/</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:55:00Z</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>4</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>New York's attorney general says SiriusXM's annoying cancellation process is actually illegal - The Verge</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>https://www.theverge.com/2023/12/21/24010975/siriusxm-lawsuit-new-york-tish-james-cancel</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:26:35Z</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>5</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>China bans export of rare earth processing technologies - Financial Times</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>https://www.ft.com/content/5b031db7-23dd-43d3-afe1-cef14817296f</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:55:07Z</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>6</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Stock market news today: US stocks bounce back from worst day in months - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/stock-market-news-today-us-stocks-bounce-back-from-worst-day-in-months-143338469.html</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:15:04Z</t>
+        </is>
+      </c>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>7</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>3 Growth Stocks to Buy That Could Be Massive Long-Term Winners - The Motley Fool</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2023/12/21/3-growth-stocks-to-buy-that-could-be-massive-long/</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>2023-12-21T14:47:00Z</t>
+        </is>
+      </c>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>8</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Angola leaves OPEC, in blow to producer group - Reuters</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/africa/angola-says-it-is-leaving-opec-angop-news-agency-2023-12-21/</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>2023-12-21T14:45:00Z</t>
+        </is>
+      </c>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>9</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Honda recall: CR-V, Civic, Accord, more recalled for fuel pump issue - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/money/cars/recalls/2023/12/21/honda-recall-fuel-pump/71997363007/</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:32:44Z</t>
+        </is>
+      </c>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>10</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product (Third Estimate), Corporate Profits (Revised Estimate), and GDP by Industry, Third Quarter 2023 | U.S - Bureau of Economic Analysis</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>https://www.bea.gov/news/2023/gross-domestic-product-third-estimate-corporate-profits-revised-estimate-and-gdp-0</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:30:00Z</t>
+        </is>
+      </c>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>maybe Maybe MAYBE</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>maybemaybemaybe</t>
+        </is>
+      </c>
+      <c r="I272" t="n">
+        <v>45526</v>
+      </c>
+      <c r="K272" t="n">
+        <v>987</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/f5scsgz7yp7c1</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>2023-12-21 13:49:36</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>2</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Catch &amp; Release, Florida style.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="I273" t="n">
+        <v>45144</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1369</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/6z1478t63p7c1</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:56:29</t>
+        </is>
+      </c>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>3</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Showing how vital technique is to the efficacy of a Katana. </t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>42184</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1626</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/5i71wf9qip7c1</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>2023-12-21 12:22:19</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>4</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>I lost 70 lbs by eating healthy and exercising. This is my typical work day lunch.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>38665</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3252</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/m0mfubd32p7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:50:33</t>
+        </is>
+      </c>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>5</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Meirl</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>37467</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1099</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/g40ervi5pr7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>2023-12-21 19:41:52</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>6</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Conflict Resolution (Meow)</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>33147</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1674</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/u34d4qjsvr7c1</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:19:16</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>7</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>TIL “It’s Always Sunny in Philadelphia” is the wordiest show on TV with 176.2 words per minute, which makes the Rob McElhenney-created FX sitcom the hardest series to follow if you’re watching with subtitles.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>todayilearned</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>31642</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1498</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>https://www.thewrap.com/its-always-sunny-in-philadelphia-wordiest-tv-show/</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:30:29</t>
+        </is>
+      </c>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>8</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Bro 😭</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>KidsAreFuckingStupid</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>31659</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1649</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/a45fisc6po7c1</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>2023-12-21 09:36:46</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>And noah’s ark lmao</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>technicallythetruth</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>31386</v>
+      </c>
+      <c r="K280" t="n">
+        <v>853</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/rsucvw4c7q7c1.png</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>2023-12-21 14:40:47</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>10</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Arrested for "creating a disturbance" after a police car crashed into his bar</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>30844</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1167</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/q0yju1fwno7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>2023-12-21 09:29:31</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Joshua Tree</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M282" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>2</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Simone Biles</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M283" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>3</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Rams</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M284" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>4</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M285" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>5</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Pistons</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M286" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N286" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>6</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Iodine</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M287" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>7</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M288" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>8</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Yoshinobu Yamamoto</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M289" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Vin Diesel</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M290" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>10</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>President Biden</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M291" s="8" t="n">
+        <v>45282.38546305556</v>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>aifilter</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G292" t="n">
+        <v>158783717</v>
+      </c>
+      <c r="H292" t="n">
+        <v>40759</v>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>2</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>jamorant</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Sports &amp; Outdoor</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>80635156</v>
+      </c>
+      <c r="H293" t="n">
+        <v>7752</v>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>3</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>wompwomp</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>32919414</v>
+      </c>
+      <c r="H294" t="n">
+        <v>16261</v>
+      </c>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>4</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>ladiabla</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G295" t="n">
+        <v>26629862</v>
+      </c>
+      <c r="H295" t="n">
+        <v>21880</v>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>5</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>winterbreak</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G296" t="n">
+        <v>64909165</v>
+      </c>
+      <c r="H296" t="n">
+        <v>13144</v>
+      </c>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>6</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>percyjackson</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Games</t>
+        </is>
+      </c>
+      <c r="G297" t="n">
+        <v>62373809</v>
+      </c>
+      <c r="H297" t="n">
+        <v>5287</v>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>7</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>News &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="G298" t="n">
+        <v>36841089</v>
+      </c>
+      <c r="H298" t="n">
+        <v>5644</v>
+      </c>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>8</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>christmasbreak</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G299" t="n">
+        <v>46282891</v>
+      </c>
+      <c r="H299" t="n">
+        <v>8295</v>
+      </c>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>percyjacksonandtheolympians</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Games</t>
+        </is>
+      </c>
+      <c r="G300" t="n">
+        <v>32772172</v>
+      </c>
+      <c r="H300" t="n">
+        <v>3695</v>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>10</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>texting</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G301" t="n">
+        <v>64369191</v>
+      </c>
+      <c r="H301" t="n">
+        <v>11732</v>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>2023-12-22</t>
         </is>
       </c>
     </row>
@@ -19588,4 +19960,1800 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Subreddit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Publish_Count</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Subscribers</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>지민 (Jimin) 'Closer Than This' Official MV</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HYBE LABELS</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>3073446</v>
+      </c>
+      <c r="I2" t="n">
+        <v>987847</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73600000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>85810</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-12-22 05:00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Drake - You Broke My Heart</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>DrakeVEVO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2473798</v>
+      </c>
+      <c r="I3" t="n">
+        <v>123673</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9160000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>7551</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:49:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dianna Health Update from SmarterEveryDay</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Physics Girl</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1226276</v>
+      </c>
+      <c r="I4" t="n">
+        <v>134336</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>7658</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-12-21 21:18:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I Tested 1-Star Camping</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ryan Trahan</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>3572061</v>
+      </c>
+      <c r="I5" t="n">
+        <v>141749</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14200000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15330</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-12-20 16:29:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I built this YouTuber a Bionic Hand!</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Science &amp; Technology</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hacksmith Industries</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1025141</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55756</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14300000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1655</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:58:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HIGHLIGHTS | CLUB AMERICA 3 vs 2 FC BARCELONA | DALLAS FRIENDLY</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>569506</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16573</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16200000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1218</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-12-22 04:18:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lego Fortnite Meme Olympics</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LazarBeam</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2463028</v>
+      </c>
+      <c r="I8" t="n">
+        <v>98629</v>
+      </c>
+      <c r="J8" t="n">
+        <v>21400000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-12-21 01:11:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SIDEMEN AMONG US BUT ITS ONLY THE BEST ROLES</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MoreSidemen</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2162810</v>
+      </c>
+      <c r="I9" t="n">
+        <v>131459</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8180000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2901</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-12-21 18:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Steve-O Is Extra Naughty For the Hot Ones Holiday Extravaganza | Hot Ones</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>First We Feast</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>527842</v>
+      </c>
+      <c r="I10" t="n">
+        <v>22133</v>
+      </c>
+      <c r="J10" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-12-21 16:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Casually Explained: The Levels of AI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Casually Explained</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>779296</v>
+      </c>
+      <c r="I11" t="n">
+        <v>56267</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3990000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1295</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-12-21 15:00:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Man United, Bayern commit to UEFA amid Super League verdict - ESPN</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://www.espn.com/soccer/story/_/id/39160537/man-united-bayern-commit-uefa-amid-super-league-verdict</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:43:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>'Survivor' star Austin reacts to Dee's Tribal Council 'sucker punch' - Entertainment Weekly News</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://ew.com/survivor-45-austin-li-coon-reacts-dee-tribal-council-sucker-punch-interview-8419012</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:01:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>US commits to landing an international astronaut on the Moon - Ars Technica</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://arstechnica.com/space/2023/12/us-commits-to-landing-an-international-astronaut-on-the-moon/</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:44:47Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Israel Hamas war live updates: Vast tunnels uncovered under Gaza - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/news/world/israel-hamas/2023/12/21/israel-hamas-war-gaza-live-updates/71997127007/</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:28:39Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beijing shrugs at U.S. call for help protecting Red Sea shipping - POLITICO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.politico.com/news/2023/12/21/beijing-u-s-red-sea-shipping-00132861</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:28:30Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Streets of Argentina erupt with anger against new Milei proposals - Euronews</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.euronews.com/2023/12/21/streets-of-argentina-erupt-with-anger-against-new-milei-proposals</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:07:56Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Florida State leaving the ACC would have massive ramifications for the future of college athletics - Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/florida-state-leaving-the-acc-would-have-massive-ramifications-for-the-future-of-college-athletics-154632042.html</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:46:32Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Flooding forces evacuations, warnings to stay off roads - VC Star</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.vcstar.com/story/news/2023/12/21/flooding-forces-evacuations-warnings-to-stay-off-roads/71998169007/</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:37:23Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NFL Week 16 picks, predictions: Rams, Saints battle for wild-card spot - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/sports/nfl-picks/2023/12/21/nfl-picks-predictions-spread-cowboys-dolphins-ravens-niners-week-16/71997168007/</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:19:40Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>'Iron Claw' star Zac Efron breaks down his wrestling transformation - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/entertainment/movies/2023/12/21/the-iron-claw-zac-efron-interview/71956960007/</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:16:14Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Unexpected Eurotunnel strike disrupts train traffic under Channel - Reuters</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/europe/unexpected-eurotunnel-strike-disrupts-train-traffic-under-channel-eurostar-2023-12-21/</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:33:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Biden Administration Explores Raising Tariffs on Chinese EVs - WSJ - The Wall Street Journal</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.wsj.com/economy/trade/biden-administration-explores-raising-tariffs-on-chinese-evs-e439d87d</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-12-21T17:31:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>New York lawmakers propose new legislation aimed at having Chick-Fil-A open seven days a week - Salon</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.salon.com/2023/12/21/new-york-lawmakers-propose-new-legislation-aimed-at-having-chick-fil-a-open-seven-days-a-week/</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:55:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>New York's attorney general says SiriusXM's annoying cancellation process is actually illegal - The Verge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.theverge.com/2023/12/21/24010975/siriusxm-lawsuit-new-york-tish-james-cancel</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-12-21T16:26:35Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>China bans export of rare earth processing technologies - Financial Times</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.ft.com/content/5b031db7-23dd-43d3-afe1-cef14817296f</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:55:07Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Stock market news today: US stocks bounce back from worst day in months - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://finance.yahoo.com/news/stock-market-news-today-us-stocks-bounce-back-from-worst-day-in-months-143338469.html</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-12-21T15:15:04Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3 Growth Stocks to Buy That Could Be Massive Long-Term Winners - The Motley Fool</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.fool.com/investing/2023/12/21/3-growth-stocks-to-buy-that-could-be-massive-long/</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-12-21T14:47:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Angola leaves OPEC, in blow to producer group - Reuters</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/africa/angola-says-it-is-leaving-opec-angop-news-agency-2023-12-21/</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-12-21T14:45:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Honda recall: CR-V, Civic, Accord, more recalled for fuel pump issue - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/money/cars/recalls/2023/12/21/honda-recall-fuel-pump/71997363007/</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:32:44Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product (Third Estimate), Corporate Profits (Revised Estimate), and GDP by Industry, Third Quarter 2023 | U.S - Bureau of Economic Analysis</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.bea.gov/news/2023/gross-domestic-product-third-estimate-corporate-profits-revised-estimate-and-gdp-0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-12-21T13:30:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>maybe Maybe MAYBE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>maybemaybemaybe</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>45526</v>
+      </c>
+      <c r="K32" t="n">
+        <v>987</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/f5scsgz7yp7c1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-12-21 13:49:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Catch &amp; Release, Florida style.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>45144</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1369</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/6z1478t63p7c1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:56:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Showing how vital technique is to the efficacy of a Katana. </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>42184</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1626</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/5i71wf9qip7c1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-12-21 12:22:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>I lost 70 lbs by eating healthy and exercising. This is my typical work day lunch.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>38665</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3252</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/m0mfubd32p7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:50:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Meirl</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>37467</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1099</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/g40ervi5pr7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-12-21 19:41:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conflict Resolution (Meow)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>33147</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1674</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/u34d4qjsvr7c1</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-12-21 20:19:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TIL “It’s Always Sunny in Philadelphia” is the wordiest show on TV with 176.2 words per minute, which makes the Rob McElhenney-created FX sitcom the hardest series to follow if you’re watching with subtitles.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>todayilearned</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>31642</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1498</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://www.thewrap.com/its-always-sunny-in-philadelphia-wordiest-tv-show/</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-12-21 10:30:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bro 😭</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>KidsAreFuckingStupid</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>31659</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1649</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/a45fisc6po7c1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-12-21 09:36:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>And noah’s ark lmao</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>technicallythetruth</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>31386</v>
+      </c>
+      <c r="K40" t="n">
+        <v>853</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/rsucvw4c7q7c1.png</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-12-21 14:40:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Arrested for "creating a disturbance" after a police car crashed into his bar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>30844</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1167</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/q0yju1fwno7c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-12-21 09:29:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Joshua Tree</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Simone Biles</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rams</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Prague</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Pistons</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M46" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Iodine</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M47" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Yoshinobu Yamamoto</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Vin Diesel</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>President Biden</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M51" s="6" t="n">
+        <v>45282.38546305556</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>aifilter</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>158783717</v>
+      </c>
+      <c r="H52" t="n">
+        <v>40759</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>jamorant</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Sports &amp; Outdoor</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>80635156</v>
+      </c>
+      <c r="H53" t="n">
+        <v>7752</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>wompwomp</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>32919414</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16261</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ladiabla</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>26629862</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21880</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>winterbreak</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>64909165</v>
+      </c>
+      <c r="H56" t="n">
+        <v>13144</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>percyjackson</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Games</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>62373809</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>70s</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>News &amp; Entertainment</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>36841089</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5644</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>christmasbreak</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>46282891</v>
+      </c>
+      <c r="H59" t="n">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>percyjacksonandtheolympians</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Games</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>32772172</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>texting</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>64369191</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11732</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/all_trends.xlsx
+++ b/all_trends.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="3360" windowWidth="29040" windowHeight="17520" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6915" yWindow="4230" windowWidth="28800" windowHeight="15210" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-18" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-20" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-21" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-22" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023-12-26" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -20,13 +21,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -45,9 +45,6 @@
       <b val="1"/>
       <sz val="11"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -57,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -95,32 +92,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6257,81 +6244,84 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N301"/>
+  <dimension ref="A1:N361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="19.85546875" bestFit="1" customWidth="1" min="13" max="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Platform</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Subreddit</t>
         </is>
       </c>
-      <c r="E1" s="7" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" s="7" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Channel</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Views</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Publish_Count</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Subscribers</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="M1" s="7" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Posted</t>
         </is>
       </c>
-      <c r="N1" s="7" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
@@ -11859,7 +11849,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M162" s="8" t="n">
+      <c r="M162" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N162" t="inlineStr">
@@ -11882,7 +11872,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M163" s="8" t="n">
+      <c r="M163" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N163" t="inlineStr">
@@ -11905,7 +11895,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M164" s="8" t="n">
+      <c r="M164" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N164" t="inlineStr">
@@ -11928,7 +11918,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M165" s="8" t="n">
+      <c r="M165" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N165" t="inlineStr">
@@ -11951,7 +11941,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M166" s="8" t="n">
+      <c r="M166" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N166" t="inlineStr">
@@ -11974,7 +11964,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M167" s="8" t="n">
+      <c r="M167" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N167" t="inlineStr">
@@ -11997,7 +11987,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M168" s="8" t="n">
+      <c r="M168" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N168" t="inlineStr">
@@ -12020,7 +12010,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M169" s="8" t="n">
+      <c r="M169" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N169" t="inlineStr">
@@ -12043,7 +12033,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M170" s="8" t="n">
+      <c r="M170" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N170" t="inlineStr">
@@ -12066,7 +12056,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M171" s="8" t="n">
+      <c r="M171" s="4" t="n">
         <v>45280.38546697917</v>
       </c>
       <c r="N171" t="inlineStr">
@@ -13884,7 +13874,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M222" s="8" t="n">
+      <c r="M222" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N222" t="inlineStr">
@@ -13907,7 +13897,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M223" s="8" t="n">
+      <c r="M223" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N223" t="inlineStr">
@@ -13930,7 +13920,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M224" s="8" t="n">
+      <c r="M224" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N224" t="inlineStr">
@@ -13953,7 +13943,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M225" s="8" t="n">
+      <c r="M225" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N225" t="inlineStr">
@@ -13976,7 +13966,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M226" s="8" t="n">
+      <c r="M226" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N226" t="inlineStr">
@@ -13999,7 +13989,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M227" s="8" t="n">
+      <c r="M227" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N227" t="inlineStr">
@@ -14022,7 +14012,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M228" s="8" t="n">
+      <c r="M228" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N228" t="inlineStr">
@@ -14045,7 +14035,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M229" s="8" t="n">
+      <c r="M229" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N229" t="inlineStr">
@@ -14068,7 +14058,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M230" s="8" t="n">
+      <c r="M230" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N230" t="inlineStr">
@@ -14091,7 +14081,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M231" s="8" t="n">
+      <c r="M231" s="4" t="n">
         <v>45281.38546148148</v>
       </c>
       <c r="N231" t="inlineStr">
@@ -15874,7 +15864,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M282" s="8" t="n">
+      <c r="M282" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N282" t="inlineStr">
@@ -15897,7 +15887,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M283" s="8" t="n">
+      <c r="M283" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N283" t="inlineStr">
@@ -15920,7 +15910,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M284" s="8" t="n">
+      <c r="M284" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N284" t="inlineStr">
@@ -15943,7 +15933,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M285" s="8" t="n">
+      <c r="M285" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N285" t="inlineStr">
@@ -15966,7 +15956,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M286" s="8" t="n">
+      <c r="M286" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N286" t="inlineStr">
@@ -15989,7 +15979,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M287" s="8" t="n">
+      <c r="M287" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N287" t="inlineStr">
@@ -16012,7 +16002,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M288" s="8" t="n">
+      <c r="M288" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N288" t="inlineStr">
@@ -16035,7 +16025,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M289" s="8" t="n">
+      <c r="M289" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N289" t="inlineStr">
@@ -16058,7 +16048,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M290" s="8" t="n">
+      <c r="M290" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N290" t="inlineStr">
@@ -16081,7 +16071,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M291" s="8" t="n">
+      <c r="M291" s="4" t="n">
         <v>45282.38546305556</v>
       </c>
       <c r="N291" t="inlineStr">
@@ -16367,6 +16357,2001 @@
       <c r="N301" t="inlineStr">
         <is>
           <t>2023-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>1</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>NBA YOUNGBOY: MILLION DOLLAZ WORTH OF GAME EPISODE 252</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>MILLION DOLLAZ WORTH OF GAME</t>
+        </is>
+      </c>
+      <c r="G302" t="n">
+        <v>1266730</v>
+      </c>
+      <c r="I302" t="n">
+        <v>44883</v>
+      </c>
+      <c r="J302" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>2023-12-25 00:30:07</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral - Bad Bxtch (Video Oficial)</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>2128069</v>
+      </c>
+      <c r="I303" t="n">
+        <v>100511</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>2023-12-24 22:50:46</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>3</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>I Rescued 100 Abandoned Dogs!</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>MrBeast</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>57441927</v>
+      </c>
+      <c r="I304" t="n">
+        <v>3538577</v>
+      </c>
+      <c r="J304" t="n">
+        <v>222000000</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>71757</t>
+        </is>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:00:00</t>
+        </is>
+      </c>
+      <c r="N304" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>4</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Have a Bootleg Gaming Christmas! - Scott The Woz</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>Scott The Woz</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>519916</v>
+      </c>
+      <c r="I305" t="n">
+        <v>46420</v>
+      </c>
+      <c r="J305" t="n">
+        <v>1880000</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>2023-12-25 03:00:07</t>
+        </is>
+      </c>
+      <c r="N305" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>5</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>🔥 Cozy Fireplace 4K (12 HOURS). Fireplace with Crackling Fire Sounds. Crackling Fireplace 4K</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>FOBOS PLANET</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>527109</v>
+      </c>
+      <c r="I306" t="n">
+        <v>1314</v>
+      </c>
+      <c r="J306" t="n">
+        <v>240000</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:26:10</t>
+        </is>
+      </c>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>6</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>LISA - My Only Wish (Britney Spears cover)</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Lilifilm Official</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>3956213</v>
+      </c>
+      <c r="I307" t="n">
+        <v>687246</v>
+      </c>
+      <c r="J307" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>41714</t>
+        </is>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>2023-12-24 23:02:58</t>
+        </is>
+      </c>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>7</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>We Built A School</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Beast Philanthropy</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>4336874</v>
+      </c>
+      <c r="I308" t="n">
+        <v>442091</v>
+      </c>
+      <c r="J308" t="n">
+        <v>20300000</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>10067</t>
+        </is>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>2023-12-24 12:00:28</t>
+        </is>
+      </c>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>8</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>El Alfa “El Jefe” X Donaty X Fuerza Regida - TORETTO</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>ElAlfaElJefeTV</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>2643716</v>
+      </c>
+      <c r="I309" t="n">
+        <v>98545</v>
+      </c>
+      <c r="J309" t="n">
+        <v>9640000</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>2023-12-24 04:56:32</t>
+        </is>
+      </c>
+      <c r="N309" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Birth Story — Baby Seewald #5: Part 2</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Jessa Seewald</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>427174</v>
+      </c>
+      <c r="I310" t="n">
+        <v>11380</v>
+      </c>
+      <c r="J310" t="n">
+        <v>261000</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>2023-12-24 13:57:11</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>10</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>3 Days in Arctic with Bushcraft Hot Tent &amp; No Sleeping Bag</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Outdoor Boys</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>3808820</v>
+      </c>
+      <c r="I311" t="n">
+        <v>156935</v>
+      </c>
+      <c r="J311" t="n">
+        <v>6230000</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>2023-12-23 12:00:05</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>1</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>NBA Christmas Day: Bucks vs. Knicks score, highlights, news and live updates - Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/nba-christmas-day-bucks-vs-knicks-score-highlights-news-and-live-updates-154556968.html</t>
+        </is>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:09:41Z</t>
+        </is>
+      </c>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>https://removed.com</t>
+        </is>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>1970-01-01T00:00:00Z</t>
+        </is>
+      </c>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>3</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>4</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>NFL Week 16 Christmas Day odds, expert picks, best bets, TV, odds, streaming for all three games - CBS Sports</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>https://www.cbssports.com/nfl/news/nfl-week-16-christmas-day-odds-expert-picks-best-bets-tv-odds-streaming-for-all-three-games/</t>
+        </is>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:29:59Z</t>
+        </is>
+      </c>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>5</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Former federal judge says the Constitution could disqualify Donald Trump in 2024, not Joe Biden's actions - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/news/politics/elections/2023/12/25/2024-judge-constitution-disqualify-trump-biden/72027446007/</t>
+        </is>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:52:24Z</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>6</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Demonstrators try to storm Belgrade city hall in protest against ‘stolen’ Serbian elections - CNN</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/europe/serbia-protest-election-stolen-vucic-intl/index.html</t>
+        </is>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:38:00Z</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>7</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Israeli air strike in Syria kills top Iranian military adviser - Al Jazeera English</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/news/2023/12/25/israeli-air-strike-in-syria-kills-top-iranian-general</t>
+        </is>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:25Z</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>8</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Russia's Navalny tracked down to 'Polar Wolf' prison in the Arctic - Reuters</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/europe/russias-navalny-is-prison-colony-yamal-nenets-region-spokeswoman-2023-12-25/</t>
+        </is>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:00Z</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>9</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Box Office Humbug: ‘Aquaman and the Lost Kingdom’ Opening to $38M-$40M in U.S. - Hollywood Reporter</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>https://www.hollywoodreporter.com/movies/movie-news/aquaman-lost-kingdom-box-office-opening-1235768905/</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:54:19Z</t>
+        </is>
+      </c>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>10</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>I hope Nvidia never makes an RTX 5090 - Digital Trends</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>https://www.digitaltrends.com/computing/hope-nvidia-never-makes-rtx-5090/</t>
+        </is>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:30:10Z</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>1</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Major Tech Hiring Slump in India: 90% Drop in Job Postings in 2023 | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1z9KLmJE0sw</t>
+        </is>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:50:00Z</t>
+        </is>
+      </c>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>3</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Power outage hits thousands of Seattleites on Christmas morning - The Seattle Times</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>https://www.seattletimes.com/seattle-news/power-outage-hits-thousands-of-seattleites-on-christmas-morning/</t>
+        </is>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:19:51Z</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>4</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Airbus Christmas Dinner Gives More Than 100 Employees Food Poisoning, Officials Say - The Daily Beast</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>https://www.thedailybeast.com/airbus-christmas-dinner-gives-more-than-100-employees-food-poisoning-officials-say</t>
+        </is>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:10:55Z</t>
+        </is>
+      </c>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>5</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>India's State-Owned Oil Firms Not Using Rupee | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3RdwonFiORQ</t>
+        </is>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:50:00Z</t>
+        </is>
+      </c>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>6</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Flown Alone: Unaccompanied 6-Year-Old Put On Wrong Spirit Airlines Flight - HuffPost</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>https://www.huffpost.com/entry/6-year-old-boy-flying-alone-put-on-wrong-spirit-airlines-flight_n_6589a296e4b014ec45a261eb</t>
+        </is>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:33:15Z</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>7</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>12 Stouffer's Frozen Entrées, Ranked Worst To Best - Tasting Table</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>https://www.tastingtable.com/1475310/stouffers-frozen-entrees-ranked-worst-best/</t>
+        </is>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:15:26Z</t>
+        </is>
+      </c>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>8</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>‘Here’s what happened to the old Panera’: Customer has a theory for why he claims Panera Bread went down in quality - The Daily Dot</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>https://www.dailydot.com/news/why-did-panera-quality-go-down/</t>
+        </is>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:02:21Z</t>
+        </is>
+      </c>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>9</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Southwest Airlines cancels hundreds of flights, disrupting some holiday travelers - CBS News</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/southwest-flights-canceled-airlines/</t>
+        </is>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:59:00Z</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>10</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>What to do when someone gives you a gift you don’t really want - CNN</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/health/gift-disappointment-holiday-expectations-wellness/index.html</t>
+        </is>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:35:00Z</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>1</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dancing like no one is watching </t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>nextfuckinglevel</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>62461</v>
+      </c>
+      <c r="K332" t="n">
+        <v>2141</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/lcf3n4neyh8c1</t>
+        </is>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:00:04</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>My parents just handed me this for Xmas…</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>53905</v>
+      </c>
+      <c r="K333" t="n">
+        <v>2265</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/gs3b2gt7bh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>2023-12-25 09:50:05</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>3</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>My grandma (103) meets her great great great grandson for the first time.</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>BeAmazed</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>49808</v>
+      </c>
+      <c r="K334" t="n">
+        <v>809</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/q54xn7abqh8c1.png</t>
+        </is>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:14:43</t>
+        </is>
+      </c>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>4</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Meirl</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>45116</v>
+      </c>
+      <c r="K335" t="n">
+        <v>242</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/6t5grvkp5k8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>2023-12-25 19:24:34</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>5</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Man wrongfully convicted of murder gets rewarded only 175k after serving 50 years</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>42030</v>
+      </c>
+      <c r="K336" t="n">
+        <v>2862</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/mwmtoy6hxi8c1</t>
+        </is>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:17:00</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>6</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>They win every time</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>41032</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1539</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/il1zqfspli8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:10:43</t>
+        </is>
+      </c>
+      <c r="N337" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>7</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Another Christmas as the last unmarried in my family</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>40638</v>
+      </c>
+      <c r="K338" t="n">
+        <v>1931</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/5uowfak5lk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>2023-12-25 20:52:54</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>8</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Happy Holidays</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>32096</v>
+      </c>
+      <c r="K339" t="n">
+        <v>292</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/p32snavfei8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:29:56</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>9</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Data recovery from a dead USB flash drive</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>29219</v>
+      </c>
+      <c r="K340" t="n">
+        <v>525</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/vencw80t2j8c1</t>
+        </is>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:48:14</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>10</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Try pick her outfit</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Unexpected</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>28356</v>
+      </c>
+      <c r="K341" t="n">
+        <v>592</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/nb50vhnazi8c1</t>
+        </is>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:27:07</t>
+        </is>
+      </c>
+      <c r="N341" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Chiefs</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M342" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Eagles</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M343" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>3</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Celtics</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M344" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>4</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M345" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N345" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>5</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>The Color Purple</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M346" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N346" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>6</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Knicks</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M347" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>7</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M348" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N348" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>8</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Warriors</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M349" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N349" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>9</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M350" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N350" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>10</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Wordle hint</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M351" s="4" t="n">
+        <v>45286.38546328704</v>
+      </c>
+      <c r="N351" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>1</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>merrychristmas</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>522049745</v>
+      </c>
+      <c r="H352" t="n">
+        <v>199195</v>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>christmaseve</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>108822168</v>
+      </c>
+      <c r="H353" t="n">
+        <v>62384</v>
+      </c>
+      <c r="N353" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>3</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>feliznavidad</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>139382321</v>
+      </c>
+      <c r="H354" t="n">
+        <v>75849</v>
+      </c>
+      <c r="N354" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>4</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>christmas2023</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Home Improvement</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>382335581</v>
+      </c>
+      <c r="H355" t="n">
+        <v>84481</v>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>5</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>navidad</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>403218090</v>
+      </c>
+      <c r="H356" t="n">
+        <v>68412</v>
+      </c>
+      <c r="N356" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>6</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>happyholidays</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>188727163</v>
+      </c>
+      <c r="H357" t="n">
+        <v>81863</v>
+      </c>
+      <c r="N357" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>7</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>capcutholiday</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>25740823</v>
+      </c>
+      <c r="H358" t="n">
+        <v>53134</v>
+      </c>
+      <c r="N358" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>8</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>xmas</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>274406535</v>
+      </c>
+      <c r="H359" t="n">
+        <v>49312</v>
+      </c>
+      <c r="N359" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>9</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>navidadentiktok</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G360" t="n">
+        <v>110342168</v>
+      </c>
+      <c r="H360" t="n">
+        <v>28220</v>
+      </c>
+      <c r="N360" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>10</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>newyear</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G361" t="n">
+        <v>126021718</v>
+      </c>
+      <c r="H361" t="n">
+        <v>51606</v>
+      </c>
+      <c r="N361" t="inlineStr">
+        <is>
+          <t>2023-12-26</t>
         </is>
       </c>
     </row>
@@ -17750,7 +19735,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17768,7 +19753,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17786,7 +19771,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17804,7 +19789,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17822,7 +19807,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17840,7 +19825,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M47" s="6" t="n">
+      <c r="M47" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17858,7 +19843,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M48" s="6" t="n">
+      <c r="M48" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17876,7 +19861,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M49" s="6" t="n">
+      <c r="M49" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17894,7 +19879,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -17912,7 +19897,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="M51" s="3" t="n">
         <v>45280.38546697917</v>
       </c>
     </row>
@@ -19561,7 +21546,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19579,7 +21564,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19597,7 +21582,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19615,7 +21600,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19633,7 +21618,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19651,7 +21636,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M47" s="6" t="n">
+      <c r="M47" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19669,7 +21654,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M48" s="6" t="n">
+      <c r="M48" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19687,7 +21672,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M49" s="6" t="n">
+      <c r="M49" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19705,7 +21690,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -19723,7 +21708,7 @@
           <t>Google</t>
         </is>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="M51" s="3" t="n">
         <v>45281.38546148148</v>
       </c>
     </row>
@@ -21756,4 +23741,1785 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Platform</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Subreddit</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Channel</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Views</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Publish_Count</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Subscribers</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Posted</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>NBA YOUNGBOY: MILLION DOLLAZ WORTH OF GAME EPISODE 252</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MILLION DOLLAZ WORTH OF GAME</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1266730</v>
+      </c>
+      <c r="I2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1450000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>5259</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023-12-25 00:30:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral - Bad Bxtch (Video Oficial)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yailin La Mas Viral</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2128069</v>
+      </c>
+      <c r="I3" t="n">
+        <v>100511</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2023-12-24 22:50:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I Rescued 100 Abandoned Dogs!</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MrBeast</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>57441927</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3538577</v>
+      </c>
+      <c r="J4" t="n">
+        <v>222000000</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>71757</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2023-12-23 17:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Have a Bootleg Gaming Christmas! - Scott The Woz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Gaming</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scott The Woz</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>519916</v>
+      </c>
+      <c r="I5" t="n">
+        <v>46420</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1880000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2318</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2023-12-25 03:00:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>🔥 Cozy Fireplace 4K (12 HOURS). Fireplace with Crackling Fire Sounds. Crackling Fireplace 4K</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FOBOS PLANET</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>527109</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1314</v>
+      </c>
+      <c r="J6" t="n">
+        <v>240000</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LISA - My Only Wish (Britney Spears cover)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lilifilm Official</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3956213</v>
+      </c>
+      <c r="I7" t="n">
+        <v>687246</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11500000</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>41714</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2023-12-24 23:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>We Built A School</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Beast Philanthropy</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4336874</v>
+      </c>
+      <c r="I8" t="n">
+        <v>442091</v>
+      </c>
+      <c r="J8" t="n">
+        <v>20300000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>10067</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2023-12-24 12:00:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>El Alfa “El Jefe” X Donaty X Fuerza Regida - TORETTO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ElAlfaElJefeTV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2643716</v>
+      </c>
+      <c r="I9" t="n">
+        <v>98545</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9640000</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2023-12-24 04:56:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Birth Story — Baby Seewald #5: Part 2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>People &amp; Blogs</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Jessa Seewald</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>427174</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11380</v>
+      </c>
+      <c r="J10" t="n">
+        <v>261000</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>996</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2023-12-24 13:57:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3 Days in Arctic with Bushcraft Hot Tent &amp; No Sleeping Bag</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Outdoor Boys</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3808820</v>
+      </c>
+      <c r="I11" t="n">
+        <v>156935</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6230000</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Unavailable</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2023-12-23 12:00:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NBA Christmas Day: Bucks vs. Knicks score, highlights, news and live updates - Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/nba-christmas-day-bucks-vs-knicks-score-highlights-news-and-live-updates-154556968.html</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:09:41Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[Removed]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>https://removed.com</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1970-01-01T00:00:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NFL Week 16 Christmas Day odds, expert picks, best bets, TV, odds, streaming for all three games - CBS Sports</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https://www.cbssports.com/nfl/news/nfl-week-16-christmas-day-odds-expert-picks-best-bets-tv-odds-streaming-for-all-three-games/</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:29:59Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Former federal judge says the Constitution could disqualify Donald Trump in 2024, not Joe Biden's actions - USA TODAY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://www.usatoday.com/story/news/politics/elections/2023/12/25/2024-judge-constitution-disqualify-trump-biden/72027446007/</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:52:24Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Demonstrators try to storm Belgrade city hall in protest against ‘stolen’ Serbian elections - CNN</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/europe/serbia-protest-election-stolen-vucic-intl/index.html</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:38:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Israeli air strike in Syria kills top Iranian military adviser - Al Jazeera English</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>https://www.aljazeera.com/news/2023/12/25/israeli-air-strike-in-syria-kills-top-iranian-general</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:25Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Russia's Navalny tracked down to 'Polar Wolf' prison in the Arctic - Reuters</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https://www.reuters.com/world/europe/russias-navalny-is-prison-colony-yamal-nenets-region-spokeswoman-2023-12-25/</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:55:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Box Office Humbug: ‘Aquaman and the Lost Kingdom’ Opening to $38M-$40M in U.S. - Hollywood Reporter</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>https://www.hollywoodreporter.com/movies/movie-news/aquaman-lost-kingdom-box-office-opening-1235768905/</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:54:19Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>I hope Nvidia never makes an RTX 5090 - Digital Trends</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>US Headlines</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>https://www.digitaltrends.com/computing/hope-nvidia-never-makes-rtx-5090/</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:30:10Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Powerball jackpot climbs to $638 million for Christmas Day drawing - NorthJersey.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>https://www.northjersey.com/story/news/nation/2023/12/24/powerball-jackpot-hits-638-million-for-christmas-day-drawing/72023668007/</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2023-12-25T18:01:53Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Major Tech Hiring Slump in India: 90% Drop in Job Postings in 2023 | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=1z9KLmJE0sw</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:50:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Power outage hits thousands of Seattleites on Christmas morning - The Seattle Times</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>https://www.seattletimes.com/seattle-news/power-outage-hits-thousands-of-seattleites-on-christmas-morning/</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:19:51Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Airbus Christmas Dinner Gives More Than 100 Employees Food Poisoning, Officials Say - The Daily Beast</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>https://www.thedailybeast.com/airbus-christmas-dinner-gives-more-than-100-employees-food-poisoning-officials-say</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2023-12-25T17:10:55Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>India's State-Owned Oil Firms Not Using Rupee | Vantage with Palki Sharma - Firstpost</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=3RdwonFiORQ</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:50:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Flown Alone: Unaccompanied 6-Year-Old Put On Wrong Spirit Airlines Flight - HuffPost</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>https://www.huffpost.com/entry/6-year-old-boy-flying-alone-put-on-wrong-spirit-airlines-flight_n_6589a296e4b014ec45a261eb</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:33:15Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12 Stouffer's Frozen Entrées, Ranked Worst To Best - Tasting Table</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>https://www.tastingtable.com/1475310/stouffers-frozen-entrees-ranked-worst-best/</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:15:26Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>‘Here’s what happened to the old Panera’: Customer has a theory for why he claims Panera Bread went down in quality - The Daily Dot</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>https://www.dailydot.com/news/why-did-panera-quality-go-down/</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2023-12-25T16:02:21Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>9</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Southwest Airlines cancels hundreds of flights, disrupting some holiday travelers - CBS News</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>https://www.cbsnews.com/news/southwest-flights-canceled-airlines/</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:59:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>What to do when someone gives you a gift you don’t really want - CNN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Global Business News</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>https://www.cnn.com/2023/12/25/health/gift-disappointment-holiday-expectations-wellness/index.html</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>2023-12-25T15:35:00Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dancing like no one is watching </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>nextfuckinglevel</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>62461</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2141</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/lcf3n4neyh8c1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>2023-12-25 12:00:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>My parents just handed me this for Xmas…</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>pics</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>53905</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2265</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/gs3b2gt7bh8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>2023-12-25 09:50:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>My grandma (103) meets her great great great grandson for the first time.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BeAmazed</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>49808</v>
+      </c>
+      <c r="K34" t="n">
+        <v>809</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/q54xn7abqh8c1.png</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2023-12-25 11:14:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>4</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Meirl</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>meirl</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>45116</v>
+      </c>
+      <c r="K35" t="n">
+        <v>242</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/6t5grvkp5k8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>2023-12-25 19:24:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Man wrongfully convicted of murder gets rewarded only 175k after serving 50 years</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Damnthatsinteresting</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>42030</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2862</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/mwmtoy6hxi8c1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>They win every time</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>facepalm</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>41032</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1539</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/il1zqfspli8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>2023-12-25 14:10:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Another Christmas as the last unmarried in my family</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>funny</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>40638</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1931</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/5uowfak5lk8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>2023-12-25 20:52:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Happy Holidays</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MadeMeSmile</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>32096</v>
+      </c>
+      <c r="K39" t="n">
+        <v>292</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>https://i.redd.it/p32snavfei8c1.jpeg</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>2023-12-25 13:29:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>9</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Data recovery from a dead USB flash drive</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>interestingasfuck</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>29219</v>
+      </c>
+      <c r="K40" t="n">
+        <v>525</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/vencw80t2j8c1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:48:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Try pick her outfit</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Reddit</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Unexpected</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>28356</v>
+      </c>
+      <c r="K41" t="n">
+        <v>592</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://v.redd.it/nb50vhnazi8c1</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2023-12-25 15:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Chiefs</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Eagles</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Celtics</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>4</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>The Color Purple</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M46" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Knicks</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M47" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Warriors</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>9</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Suns</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Wordle hint</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Google</t>
+        </is>
+      </c>
+      <c r="M51" s="6" t="n">
+        <v>45286.38546328704</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>merrychristmas</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>522049745</v>
+      </c>
+      <c r="H52" t="n">
+        <v>199195</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>christmaseve</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>108822168</v>
+      </c>
+      <c r="H53" t="n">
+        <v>62384</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>feliznavidad</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>139382321</v>
+      </c>
+      <c r="H54" t="n">
+        <v>75849</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>christmas2023</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Home Improvement</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>382335581</v>
+      </c>
+      <c r="H55" t="n">
+        <v>84481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>navidad</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>403218090</v>
+      </c>
+      <c r="H56" t="n">
+        <v>68412</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>happyholidays</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>188727163</v>
+      </c>
+      <c r="H57" t="n">
+        <v>81863</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>capcutholiday</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>25740823</v>
+      </c>
+      <c r="H58" t="n">
+        <v>53134</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>xmas</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>274406535</v>
+      </c>
+      <c r="H59" t="n">
+        <v>49312</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>9</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>navidadentiktok</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>110342168</v>
+      </c>
+      <c r="H60" t="n">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>newyear</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>126021718</v>
+      </c>
+      <c r="H61" t="n">
+        <v>51606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>